--- a/20240124/판다스.xlsx
+++ b/20240124/판다스.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Python_dyL\Python\20240124\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -641,6 +641,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -650,9 +659,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -668,25 +674,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -990,26 +990,26 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="1"/>
       <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -1017,579 +1017,579 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="27"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="27"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="28"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:9" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="1"/>
     </row>
     <row r="13" spans="2:9" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
       <c r="H14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="2:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
       <c r="H15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:9" ht="142.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
       <c r="H16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="2:14" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="H18" s="14" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="H18" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="29" t="s">
+      <c r="I18" s="19"/>
+      <c r="J18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
     </row>
     <row r="21" spans="2:14" ht="184.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
     </row>
     <row r="24" spans="2:14" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
       <c r="I24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
     </row>
     <row r="30" spans="2:14" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
       <c r="H31" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J31" s="15"/>
-      <c r="K31" s="25" t="s">
+      <c r="J31" s="18"/>
+      <c r="K31" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="16"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="19"/>
     </row>
     <row r="32" spans="2:14" ht="310.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
       <c r="H32" s="13">
         <v>600</v>
       </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="19"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="21"/>
     </row>
     <row r="33" spans="2:14" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="K33" s="17"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="19"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="21"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
-      <c r="H34" s="14" t="s">
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19"/>
+      <c r="H34" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="19"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="21"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="19"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="21"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="19"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="21"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="19"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="21"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="19"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="21"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="21"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="19"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="21"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="19"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="21"/>
     </row>
     <row r="41" spans="2:14" ht="306.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="22"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="24"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="24"/>
     </row>
     <row r="43" spans="2:14" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="44" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16"/>
-      <c r="H44" s="14" t="s">
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="19"/>
+      <c r="H44" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="19"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="19"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="19"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="19"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="21"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="19"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="19"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="21"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="19"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="19"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="21"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="19"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="19"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="19"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="19"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:11" ht="309.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="22"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="24"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="24"/>
     </row>
     <row r="53" spans="2:11" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="16"/>
-      <c r="H54" s="14" t="s">
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="19"/>
+      <c r="H54" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="19"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="19"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="19"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="21"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="19"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="19"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="21"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="19"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="19"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="21"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="19"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="19"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="21"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="19"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="19"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="21"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="19"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="19"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:11" ht="384.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="20"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="22"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="24"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="24"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
       <c r="H64" t="s">
         <v>33</v>
       </c>
@@ -1604,209 +1604,192 @@
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
     </row>
     <row r="67" spans="2:13" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="16"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="19"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="19"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="21"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="19"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="21"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="19"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="21"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="19"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="21"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="19"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="21"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="17"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="19"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="21"/>
     </row>
     <row r="75" spans="2:13" ht="311.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="20"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="24"/>
     </row>
     <row r="77" spans="2:13" ht="122.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="16"/>
-      <c r="H78" s="14" t="s">
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="19"/>
+      <c r="H78" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I78" s="16"/>
-      <c r="K78" s="14" t="s">
+      <c r="I78" s="19"/>
+      <c r="K78" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="L78" s="15"/>
-      <c r="M78" s="16"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="19"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="19"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="19"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="19"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="21"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="21"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="21"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="19"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="19"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="19"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="21"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="21"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="21"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B81" s="17"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="19"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="19"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="19"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="21"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="21"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="21"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="17"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="19"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="19"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="19"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="21"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="21"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="21"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" s="17"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="19"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="19"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="19"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="21"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="21"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="21"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84" s="17"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="19"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="19"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="19"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="21"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="21"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="21"/>
     </row>
     <row r="85" spans="2:13" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B85" s="20"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="22"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="22"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="22"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="24"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="24"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J18:M21"/>
-    <mergeCell ref="B3:F10"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F21"/>
-    <mergeCell ref="H18:I21"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F32"/>
-    <mergeCell ref="I31:J32"/>
-    <mergeCell ref="B34:F41"/>
-    <mergeCell ref="H34:J41"/>
-    <mergeCell ref="K31:N41"/>
-    <mergeCell ref="B44:F51"/>
-    <mergeCell ref="H44:J51"/>
-    <mergeCell ref="B54:F61"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="H54:J61"/>
     <mergeCell ref="K78:M85"/>
     <mergeCell ref="B63:F64"/>
     <mergeCell ref="B66:F67"/>
@@ -1814,6 +1797,23 @@
     <mergeCell ref="B78:F85"/>
     <mergeCell ref="B77:F77"/>
     <mergeCell ref="H78:I85"/>
+    <mergeCell ref="K31:N41"/>
+    <mergeCell ref="B44:F51"/>
+    <mergeCell ref="H44:J51"/>
+    <mergeCell ref="B54:F61"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="H54:J61"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F32"/>
+    <mergeCell ref="I31:J32"/>
+    <mergeCell ref="B34:F41"/>
+    <mergeCell ref="H34:J41"/>
+    <mergeCell ref="J18:M21"/>
+    <mergeCell ref="B3:F10"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F21"/>
+    <mergeCell ref="H18:I21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1825,7 +1825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="37" zoomScaleNormal="37" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.5" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
